--- a/EmailBlast/Excel/Tycadome/People/Family.xlsx
+++ b/EmailBlast/Excel/Tycadome/People/Family.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\People\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12EF24A0-2A48-4968-BB58-FF113FEE012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C9D68-A0B6-4E15-90CE-EF19BA85179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,12 +959,12 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
